--- a/DataTables/Datas/ViewConfig.xlsx
+++ b/DataTables/Datas/ViewConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GameFramework\GameFramework\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB1E3DC-F127-4A93-A3D2-C78B3240989E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BE6545-9FA5-4A15-B81C-A892911D364F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{972F4416-5A2B-4C14-8AD8-4C6365D99A68}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{972F4416-5A2B-4C14-8AD8-4C6365D99A68}"/>
   </bookViews>
   <sheets>
     <sheet name="ViewConfig" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -152,6 +152,10 @@
   </si>
   <si>
     <t>MainUIView</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -575,7 +579,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -681,7 +685,7 @@
         <v>16</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>16</v>
